--- a/Start File Visuals.xlsx
+++ b/Start File Visuals.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karzin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AF38B9-65DC-40B0-814F-67E190421FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8658477B-0705-4DD3-86EA-69927013819F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{A15B3FEA-B764-184D-BC44-F828B0BB3928}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A15B3FEA-B764-184D-BC44-F828B0BB3928}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover Page" sheetId="7" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="6" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.2" hidden="1">Dashboard!$Y$29:$Y$33</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Dashboard!$Z$29:$Z$33</definedName>
     <definedName name="_xlchart.v5.0" hidden="1">Dashboard!$Y$29:$Y$33</definedName>
     <definedName name="_xlchart.v5.1" hidden="1">Dashboard!$Z$29:$Z$33</definedName>
     <definedName name="CalendarYear">#REF!</definedName>
@@ -70,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Develop Solution</t>
   </si>
@@ -219,62 +216,6 @@
     <t>Consulting Project Dashboard</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Get </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10% OFF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> our course using coupon code </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EMAIL10</t>
-    </r>
-  </si>
-  <si>
-    <t>Get our Excel for Business &amp; Finance Course</t>
-  </si>
-  <si>
-    <t>Made by Career Principles Ltd.</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>All content is copyright material of Career Principles Ltd.</t>
-  </si>
-  <si>
-    <t>This Excel model may not be reproduced or distributed by any means, including printing, 
-screencapturing, or any other method without the prior permission of the publisher.</t>
-  </si>
-  <si>
-    <t>Visuals Start File</t>
-  </si>
-  <si>
     <t>Duration(days)</t>
   </si>
 </sst>
@@ -282,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -386,56 +327,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="55"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="60"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="20"/>
-      <color rgb="FF073673"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF0432FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,14 +353,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -528,101 +415,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -630,7 +422,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -677,46 +469,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1458,7 +1215,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A66B40E8-F1FE-4F60-965F-47B93007E6A6}</c15:txfldGUID>
+                      <c15:txfldGUID>{6FFCE66B-018B-450E-BF94-C173B1B5C27A}</c15:txfldGUID>
                       <c15:f>Dashboard!$V$18</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1870,7 +1627,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{422FA942-02DA-46F4-B51E-4D9E74A0D858}</c15:txfldGUID>
+                      <c15:txfldGUID>{FB10F61C-F141-49E1-9907-36D1F3373472}</c15:txfldGUID>
                       <c15:f>Dashboard!$AA$18</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2358,6 +2115,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1537357056"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5278,51 +5036,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2354700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>100895</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2913358" cy="1013555"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E45C33-E6D5-1042-A384-1A96E4B75C85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3827900" y="1408995"/>
-          <a:ext cx="2913358" cy="1013555"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5704,8 +5417,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5798736" y="5728955"/>
-              <a:ext cx="4012363" cy="2679561"/>
+              <a:off x="5823857" y="5767613"/>
+              <a:ext cx="4026877" cy="2700077"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6034,114 +5747,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F956762B-F31B-4445-9CC6-536B49ACAFE1}">
-  <dimension ref="B3:D15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="43"/>
-    <col min="2" max="2" width="8.5" style="43" customWidth="1"/>
-    <col min="3" max="3" width="95.6640625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="43" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" ht="70.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="28"/>
-    </row>
-    <row r="4" spans="2:4" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="B6" s="29"/>
-      <c r="C6" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" spans="2:4" s="44" customFormat="1" ht="26" x14ac:dyDescent="0.35">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="36"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="29"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="29"/>
-      <c r="C10" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="29"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="29"/>
-      <c r="C12" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="29"/>
-      <c r="C13" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="2:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B14" s="29"/>
-      <c r="C14" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mQfCtxD68jcsUWGpFqeUJEMOFmOwMM7CeBcIsFjso0iKeUvdB0TxJAetKMJ/QhBc5UOKfWjNFGv77gLmhsIhpw==" saltValue="VdYzkYyZf0Zj1mYFfqOCag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" display="Made by Kenji Explains" xr:uid="{E5682CBD-2F8F-E84B-B21D-7B1122AB5C97}"/>
-    <hyperlink ref="C8" r:id="rId2" display="Get our VBA &amp; Macros Course" xr:uid="{0A2C33CB-B521-8F49-A959-AD974A545DBA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3B3621-7A7D-414F-AEC3-D2B91D4CBBC6}">
   <dimension ref="B2:AB33"/>
   <sheetViews>
@@ -6193,28 +5798,28 @@
       <c r="AB2" s="12"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="T4" s="47" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="T4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.35">
       <c r="U5" s="21" t="s">
@@ -6224,7 +5829,7 @@
         <v>4</v>
       </c>
       <c r="W5" s="21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.35">
@@ -6318,49 +5923,49 @@
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="U13" s="45">
+      <c r="U13" s="26">
         <f>U6</f>
         <v>44805</v>
       </c>
-      <c r="V13" s="45">
+      <c r="V13" s="26">
         <f>V11</f>
         <v>44855</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="T16" s="47" t="s">
+      <c r="T16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="Y16" s="47" t="s">
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="Y16" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Z16" s="47" t="s">
+      <c r="Z16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="J17" s="46" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="J17" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
       <c r="S17" s="8"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -6666,37 +6271,37 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="T27" s="47" t="s">
+      <c r="T27" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="Y27" s="47" t="s">
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="Y27" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="47"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="J28" s="46" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="J28" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
       <c r="U28" s="25" t="s">
         <v>20</v>
       </c>
@@ -6794,16 +6399,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="T16:W16"/>
     <mergeCell ref="Y16:AB16"/>
     <mergeCell ref="Y27:AB27"/>
     <mergeCell ref="T27:W27"/>
     <mergeCell ref="B4:O4"/>
     <mergeCell ref="T4:W4"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="T16:W16"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H26">
     <cfRule type="iconSet" priority="1">
